--- a/8/1/Balanza de Pagos Resumen 2003 a 2021 - Trimestral.xlsx
+++ b/8/1/Balanza de Pagos Resumen 2003 a 2021 - Trimestral.xlsx
@@ -5190,58 +5190,58 @@
         <v>92</v>
       </c>
       <c r="B74">
-        <v>-1554</v>
+        <v>-1837</v>
       </c>
       <c r="C74">
-        <v>2357</v>
+        <v>2547</v>
       </c>
       <c r="D74">
-        <v>3957</v>
+        <v>4266</v>
       </c>
       <c r="E74">
-        <v>21897</v>
+        <v>22232</v>
       </c>
       <c r="F74">
-        <v>17940</v>
+        <v>17967</v>
       </c>
       <c r="G74">
-        <v>-1600</v>
+        <v>-1719</v>
       </c>
       <c r="H74">
-        <v>-3845</v>
+        <v>-4334</v>
       </c>
       <c r="I74">
-        <v>-3658</v>
+        <v>-4147</v>
       </c>
       <c r="J74">
-        <v>-66</v>
+        <v>-49</v>
       </c>
       <c r="K74">
         <v>1</v>
       </c>
       <c r="L74">
-        <v>-1553</v>
+        <v>-1836</v>
       </c>
       <c r="M74">
-        <v>-2349</v>
+        <v>-919</v>
       </c>
       <c r="N74">
-        <v>-1331</v>
+        <v>-507</v>
       </c>
       <c r="O74">
-        <v>527</v>
+        <v>1445</v>
       </c>
       <c r="P74">
         <v>-672</v>
       </c>
       <c r="Q74">
-        <v>-2328</v>
+        <v>-2639</v>
       </c>
       <c r="R74">
         <v>1455</v>
       </c>
       <c r="S74">
-        <v>-796</v>
+        <v>918</v>
       </c>
       <c r="T74">
         <v>1455</v>
@@ -5251,11 +5251,62 @@
       <c r="A75" t="s">
         <v>93</v>
       </c>
+      <c r="B75">
+        <v>-2638</v>
+      </c>
+      <c r="C75">
+        <v>2273</v>
+      </c>
+      <c r="D75">
+        <v>4174</v>
+      </c>
       <c r="E75">
-        <v>23480</v>
+        <v>23234</v>
       </c>
       <c r="F75">
-        <v>19031</v>
+        <v>19060</v>
+      </c>
+      <c r="G75">
+        <v>-1902</v>
+      </c>
+      <c r="H75">
+        <v>-4922</v>
+      </c>
+      <c r="I75">
+        <v>-4735</v>
+      </c>
+      <c r="J75">
+        <v>11</v>
+      </c>
+      <c r="K75">
+        <v>0</v>
+      </c>
+      <c r="L75">
+        <v>-2637</v>
+      </c>
+      <c r="M75">
+        <v>-4795</v>
+      </c>
+      <c r="N75">
+        <v>-3436</v>
+      </c>
+      <c r="O75">
+        <v>-11714</v>
+      </c>
+      <c r="P75">
+        <v>74</v>
+      </c>
+      <c r="Q75">
+        <v>5835</v>
+      </c>
+      <c r="R75">
+        <v>4446</v>
+      </c>
+      <c r="S75">
+        <v>-2157</v>
+      </c>
+      <c r="T75">
+        <v>4446</v>
       </c>
     </row>
   </sheetData>

--- a/8/1/Balanza de Pagos Resumen 2003 a 2021 - Trimestral.xlsx
+++ b/8/1/Balanza de Pagos Resumen 2003 a 2021 - Trimestral.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="95">
   <si>
     <t>Serie</t>
   </si>
@@ -296,6 +296,9 @@
   </si>
   <si>
     <t>01-04-2021</t>
+  </si>
+  <si>
+    <t>01-07-2021</t>
   </si>
 </sst>
 </file>
@@ -653,7 +656,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T75"/>
+  <dimension ref="A1:T76"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -5309,6 +5312,17 @@
         <v>4446</v>
       </c>
     </row>
+    <row r="76" spans="1:20">
+      <c r="A76" t="s">
+        <v>94</v>
+      </c>
+      <c r="E76">
+        <v>23194</v>
+      </c>
+      <c r="F76">
+        <v>22505</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/8/1/Balanza de Pagos Resumen 2003 a 2021 - Trimestral.xlsx
+++ b/8/1/Balanza de Pagos Resumen 2003 a 2021 - Trimestral.xlsx
@@ -5322,6 +5322,27 @@
       <c r="F76">
         <v>22505</v>
       </c>
+      <c r="M76">
+        <v>-7426</v>
+      </c>
+      <c r="N76">
+        <v>344</v>
+      </c>
+      <c r="O76">
+        <v>-14828</v>
+      </c>
+      <c r="P76">
+        <v>263</v>
+      </c>
+      <c r="Q76">
+        <v>-1880</v>
+      </c>
+      <c r="R76">
+        <v>8675</v>
+      </c>
+      <c r="T76">
+        <v>8675</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
